--- a/admin/production/uploads/filemau.xlsx
+++ b/admin/production/uploads/filemau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thlogistics\admin\production\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1464,13 +1464,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>350373</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>155111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>964076</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>895350</xdr:rowOff>
+      <xdr:rowOff>768814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1499,8 +1499,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1493373" y="3076575"/>
-          <a:ext cx="613703" cy="866775"/>
+          <a:off x="1493373" y="3203111"/>
+          <a:ext cx="613703" cy="613703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,13 +1512,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>157770</xdr:colOff>
+      <xdr:colOff>292894</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1180492</xdr:colOff>
+      <xdr:colOff>1045368</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1095374</xdr:rowOff>
     </xdr:to>
@@ -1552,8 +1552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1300770" y="4352925"/>
-          <a:ext cx="1022722" cy="752474"/>
+          <a:off x="1435894" y="4352925"/>
+          <a:ext cx="752474" cy="752474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,13 +1565,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>194268</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>270468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:colOff>986832</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1063032</xdr:rowOff>
     </xdr:to>
@@ -1605,8 +1605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="5680668"/>
-          <a:ext cx="1181100" cy="792564"/>
+          <a:off x="1337268" y="5680668"/>
+          <a:ext cx="792564" cy="792564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,7 +1916,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/admin/production/uploads/filemau.xlsx
+++ b/admin/production/uploads/filemau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thlogistics\admin\production\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -278,7 +278,7 @@
     <t>https://mobile.yangkeduo.com/goods1.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=qdlmBwoAMNNRxnwxkYn6M9Jv2Ncjh1gL&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6KEOCSJTJMHLHC5RCEU6JHC7XVEA&amp;goods_id=413613378146</t>
   </si>
   <si>
-    <t>TH168820</t>
+    <t>THOD295</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1297,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1345,6 +1344,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,25 +1512,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>292894</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1045368</xdr:colOff>
+      <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1095374</xdr:rowOff>
+      <xdr:rowOff>1118580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE8E70F-1419-4739-97B1-182C2E4A665D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D7D4049D-C68D-4FDB-A6EC-68C124016779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB1111B-A541-4EA9-BB27-3244421F15B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,8 +1549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435894" y="4352925"/>
-          <a:ext cx="752474" cy="752474"/>
+          <a:off x="1357920" y="4248150"/>
+          <a:ext cx="880455" cy="880455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,25 +1562,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>194268</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>270468</xdr:rowOff>
+      <xdr:rowOff>213318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>986832</xdr:colOff>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1063032</xdr:rowOff>
+      <xdr:rowOff>1070568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B05390-1331-4FAA-9153-45329DA2EA6C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4AE8E70F-1419-4739-97B1-182C2E4A665D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB1111B-A541-4EA9-BB27-3244421F15B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,8 +1599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1337268" y="5680668"/>
-          <a:ext cx="792564" cy="792564"/>
+          <a:off x="1314450" y="5623518"/>
+          <a:ext cx="857250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,7 +1910,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2024,7 @@
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="138" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="97"/>
@@ -2670,9 +2664,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121" t="s">
+      <c r="A1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="120" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="97"/>
@@ -2688,17 +2682,17 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
       <c r="H2" s="109"/>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="125" t="s">
         <v>46</v>
       </c>
       <c r="J2" s="33" t="s">
@@ -2719,17 +2713,17 @@
       <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="129" t="e">
+      <c r="B3" s="128" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="110"/>
       <c r="F3" s="102"/>
       <c r="G3" s="102"/>
       <c r="H3" s="103"/>
-      <c r="I3" s="127"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="36" t="s">
         <v>7</v>
       </c>
@@ -2748,17 +2742,17 @@
       <c r="A4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="132" t="e">
+      <c r="B4" s="131" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="110"/>
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
       <c r="H4" s="103"/>
-      <c r="I4" s="127"/>
+      <c r="I4" s="126"/>
       <c r="J4" s="36" t="s">
         <v>47</v>
       </c>
@@ -2777,17 +2771,17 @@
       <c r="A5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="129" t="e">
+      <c r="B5" s="128" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="110"/>
       <c r="F5" s="102"/>
       <c r="G5" s="102"/>
       <c r="H5" s="103"/>
-      <c r="I5" s="127"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="36" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2805,7 @@
       <c r="F6" s="102"/>
       <c r="G6" s="102"/>
       <c r="H6" s="103"/>
-      <c r="I6" s="127"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="36" t="s">
         <v>48</v>
       </c>
@@ -2830,17 +2824,17 @@
       <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="133" t="e">
+      <c r="B7" s="132" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="110"/>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
       <c r="H7" s="103"/>
-      <c r="I7" s="127"/>
+      <c r="I7" s="126"/>
       <c r="J7" s="36" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +2869,7 @@
       <c r="F8" s="102"/>
       <c r="G8" s="102"/>
       <c r="H8" s="103"/>
-      <c r="I8" s="127"/>
+      <c r="I8" s="126"/>
       <c r="J8" s="47" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +2898,7 @@
       <c r="F9" s="102"/>
       <c r="G9" s="102"/>
       <c r="H9" s="103"/>
-      <c r="I9" s="127"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="47" t="s">
         <v>16</v>
       </c>
@@ -2933,7 +2927,7 @@
       <c r="F10" s="112"/>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
-      <c r="I10" s="128"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="56" t="s">
         <v>17</v>
       </c>
@@ -2989,7 +2983,7 @@
       <c r="H12" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="135" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="97"/>
@@ -3024,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="69"/>
-      <c r="I13" s="137"/>
+      <c r="I13" s="136"/>
       <c r="J13" s="108"/>
       <c r="K13" s="108"/>
       <c r="L13" s="109"/>
@@ -3040,7 +3034,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="137" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="102"/>
@@ -3154,12 +3148,12 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="116" t="s">
+      <c r="I21" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
@@ -3268,12 +3262,12 @@
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="116" t="s">
+      <c r="I28" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="117"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
@@ -3382,12 +3376,12 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="116" t="s">
+      <c r="I35" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="118"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
